--- a/Documents/parameter.xlsx
+++ b/Documents/parameter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="0" windowWidth="2520" windowHeight="9720"/>
+    <workbookView xWindow="25680" yWindow="0" windowWidth="2520" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,16 +238,16 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,19 +323,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,10 +420,10 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -499,19 +499,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>1.0555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13999999999999999</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,11 +526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388544232"/>
-        <c:axId val="388544624"/>
+        <c:axId val="357006968"/>
+        <c:axId val="357007360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388544232"/>
+        <c:axId val="357006968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -588,12 +588,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388544624"/>
+        <c:crossAx val="357007360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388544624"/>
+        <c:axId val="357007360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -651,7 +651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388544232"/>
+        <c:crossAx val="357006968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1618,7 +1618,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F27"/>
+      <selection activeCell="F8" sqref="F8:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,16 +1655,16 @@
         <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F2">
-        <v>1.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,19 +1672,20 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
         <v>0.6</v>
       </c>
       <c r="F3">
-        <v>0.25</v>
+        <f>0.2/1.25</f>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,10 +1702,10 @@
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,24 +1713,24 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>B4*B2</f>
-        <v>0.2</v>
+        <f>B4/B3</f>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:F5" si="0">C4*C2</f>
-        <v>0.8</v>
+        <f t="shared" ref="C5:F5" si="0">C4/C3</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>1.25</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.13999999999999999</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,11 +1926,11 @@
       </c>
       <c r="E14" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;autoRotateBackFx1 type="float" value="0.8"/&gt;</v>
+        <v xml:space="preserve"> &lt;autoRotateBackFx1 type="float" value="0.85"/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,11 +1952,11 @@
       </c>
       <c r="E15" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;autoRotateBackFx2 type="float" value="1"/&gt;</v>
+        <v xml:space="preserve"> &lt;autoRotateBackFx2 type="float" value="1.2"/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,11 +1978,11 @@
       </c>
       <c r="E16" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;autoRotateBackFx3 type="float" value="1.2"/&gt;</v>
+        <v xml:space="preserve"> &lt;autoRotateBackFx3 type="float" value="1.6"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,11 +2004,11 @@
       </c>
       <c r="E17" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;autoRotateBackFxMax type="float" value="1.4"/&gt;</v>
+        <v xml:space="preserve"> &lt;autoRotateBackFxMax type="float" value="2"/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2029,11 +2030,11 @@
       </c>
       <c r="E18" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFx0 type="float" value="1.5"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFx0 type="float" value="2"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,11 +2056,11 @@
       </c>
       <c r="E19" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F19" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFx1 type="float" value="1"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFx1 type="float" value="1.2"/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,11 +2082,11 @@
       </c>
       <c r="E20" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F20" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFx2 type="float" value="0.8"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFx2 type="float" value="0.9"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2133,11 +2134,11 @@
       </c>
       <c r="E22" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="F22" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFxMax type="float" value="0.25"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFxMax type="float" value="0.16"/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,11 +2238,11 @@
       </c>
       <c r="E26" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F26" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFx3 type="float" value="0.7"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxRotTimeFx3 type="float" value="0.75"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2263,11 +2264,11 @@
       </c>
       <c r="E27" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F27" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFxMax type="float" value="0.1"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxRotTimeFxMax type="float" value="0.2"/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documents/parameter.xlsx
+++ b/Documents/parameter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25680" yWindow="0" windowWidth="2520" windowHeight="9720"/>
+    <workbookView xWindow="1455" yWindow="0" windowWidth="2520" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,13 +417,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,13 +505,13 @@
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0555555555555556</c:v>
+                  <c:v>1.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.25</c:v>
+                  <c:v>1.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.25</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,11 +526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357006968"/>
-        <c:axId val="357007360"/>
+        <c:axId val="467689280"/>
+        <c:axId val="467694376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357006968"/>
+        <c:axId val="467689280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -588,12 +588,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357007360"/>
+        <c:crossAx val="467694376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357007360"/>
+        <c:axId val="467694376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -651,7 +651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357006968"/>
+        <c:crossAx val="467689280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1684,8 +1684,7 @@
         <v>0.6</v>
       </c>
       <c r="F3">
-        <f>0.2/1.25</f>
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E4">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1722,15 +1721,15 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.0555555555555556</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,11 +2133,11 @@
       </c>
       <c r="E22" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="F22" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFxMax type="float" value="0.16"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFxMax type="float" value="0.3"/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2212,11 +2211,11 @@
       </c>
       <c r="E25" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F25" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFx2 type="float" value="0.95"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxRotTimeFx2 type="float" value="0.96"/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2238,11 +2237,11 @@
       </c>
       <c r="E26" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="F26" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFx3 type="float" value="0.75"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxRotTimeFx3 type="float" value="0.82"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,11 +2263,11 @@
       </c>
       <c r="E27" s="2">
         <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFxMax type="float" value="0.2"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxRotTimeFxMax type="float" value="0.5"/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documents/parameter.xlsx
+++ b/Documents/parameter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="0" windowWidth="2520" windowHeight="9720"/>
+    <workbookView xWindow="10185" yWindow="0" windowWidth="2520" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>autoRotateBackFx</t>
   </si>
@@ -56,13 +56,16 @@
     <t>value</t>
   </si>
   <si>
-    <t>maxSpeed4Fx</t>
-  </si>
-  <si>
     <t>minSpeed4Fx</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;!-- parameters --&gt;</t>
+  </si>
+  <si>
+    <t>waitTimeFx</t>
+  </si>
+  <si>
+    <t>maxSpeed4Fx</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2027106819709954E-2"/>
+          <c:y val="2.5114155251141551E-2"/>
+          <c:w val="0.92357323995098795"/>
+          <c:h val="0.86969546614892312"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -235,19 +248,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,7 +348,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,13 +430,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,7 +448,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -494,24 +507,112 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>waitTimeFx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0666666666666667</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3666666666666667</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,11 +627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467689280"/>
-        <c:axId val="467694376"/>
+        <c:axId val="515113424"/>
+        <c:axId val="515111072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467689280"/>
+        <c:axId val="515113424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -588,15 +689,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467694376"/>
+        <c:crossAx val="515111072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467694376"/>
+        <c:axId val="515111072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -651,7 +753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467689280"/>
+        <c:crossAx val="515113424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -1302,8 +1404,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1326,8 +1428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:F27" totalsRowShown="0">
-  <autoFilter ref="A7:F27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:F33" totalsRowShown="0">
+  <autoFilter ref="A8:F33"/>
   <tableColumns count="6">
     <tableColumn id="1" name="line" dataDxfId="5">
       <calculatedColumnFormula>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</calculatedColumnFormula>
@@ -1342,7 +1444,7 @@
       <calculatedColumnFormula>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="value" dataDxfId="1">
-      <calculatedColumnFormula>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</calculatedColumnFormula>
+      <calculatedColumnFormula>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name=" &lt;!-- parameters --&gt;" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</calculatedColumnFormula>
@@ -1615,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F27"/>
+      <selection activeCell="F9" sqref="F9:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,7 +1786,7 @@
         <v>0.6</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,584 +1800,727 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1.9</v>
+      </c>
+      <c r="E5">
+        <v>1.6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>B4/B3</f>
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:F5" si="0">C4/C3</f>
+      <c r="C6">
+        <f t="shared" ref="C6:F6" si="0">C4/C3</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1.3666666666666667</v>
-      </c>
-      <c r="F5">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;minSpeed4Fx type="float" value="0"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>0</v>
       </c>
-      <c r="D9" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>speedFxPoint1</v>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>12.5</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;speedFxPoint1 type="float" value="12.5"/&gt;</v>
+        <v xml:space="preserve"> &lt;minSpeed4Fx type="float" value="0"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>0</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>speedFxPoint2</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>speedFxPoint1</v>
       </c>
       <c r="E10" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>25</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>12.5</v>
       </c>
       <c r="F10" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;speedFxPoint2 type="float" value="25"/&gt;</v>
+        <v xml:space="preserve"> &lt;speedFxPoint1 type="float" value="12.5"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>0</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>speedFxPoint3</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>speedFxPoint2</v>
       </c>
       <c r="E11" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>50</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;speedFxPoint3 type="float" value="50"/&gt;</v>
+        <v xml:space="preserve"> &lt;speedFxPoint2 type="float" value="25"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
+      <c r="D12" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>speedFxPoint3</v>
       </c>
       <c r="E12" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>100</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxSpeed4Fx type="float" value="100"/&gt;</v>
+        <v xml:space="preserve"> &lt;speedFxPoint3 type="float" value="50"/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
-        <v>1</v>
-      </c>
-      <c r="D13" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>autoRotateBackFx0</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
       </c>
       <c r="E13" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.2</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>100</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;autoRotateBackFx0 type="float" value="0.2"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxSpeed4Fx type="float" value="100"/&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>1</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>autoRotateBackFx1</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>autoRotateBackFx0</v>
       </c>
       <c r="E14" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.85</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>0.1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;autoRotateBackFx1 type="float" value="0.85"/&gt;</v>
+        <v xml:space="preserve"> &lt;autoRotateBackFx0 type="float" value="0.1"/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>1</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>autoRotateBackFx2</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>autoRotateBackFx1</v>
       </c>
       <c r="E15" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>1.2</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;autoRotateBackFx2 type="float" value="1.2"/&gt;</v>
+        <v xml:space="preserve"> &lt;autoRotateBackFx1 type="float" value="1"/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>1</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>autoRotateBackFx3</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>autoRotateBackFx2</v>
       </c>
       <c r="E16" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>1.6</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>2</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;autoRotateBackFx3 type="float" value="1.6"/&gt;</v>
+        <v xml:space="preserve"> &lt;autoRotateBackFx2 type="float" value="2"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>1</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>autoRotateBackFxMax</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>autoRotateBackFx3</v>
       </c>
       <c r="E17" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>2</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;autoRotateBackFxMax type="float" value="2"/&gt;</v>
+        <v xml:space="preserve"> &lt;autoRotateBackFx3 type="float" value="3"/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>axisSideFx0</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>autoRotateBackFxMax</v>
       </c>
       <c r="E18" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>2</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>4</v>
       </c>
       <c r="F18" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFx0 type="float" value="2"/&gt;</v>
+        <v xml:space="preserve"> &lt;autoRotateBackFxMax type="float" value="4"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>2</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>axisSideFx1</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>axisSideFx0</v>
       </c>
       <c r="E19" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>1.2</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>2</v>
       </c>
       <c r="F19" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFx1 type="float" value="1.2"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFx0 type="float" value="2"/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>2</v>
       </c>
       <c r="D20" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>axisSideFx2</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>axisSideFx1</v>
       </c>
       <c r="E20" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.9</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>1.2</v>
       </c>
       <c r="F20" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFx2 type="float" value="0.9"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFx1 type="float" value="1.2"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>2</v>
       </c>
       <c r="D21" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>axisSideFx3</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>axisSideFx2</v>
       </c>
       <c r="E21" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.6</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>0.9</v>
       </c>
       <c r="F21" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFx3 type="float" value="0.6"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFx2 type="float" value="0.9"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>2</v>
       </c>
       <c r="D22" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>axisSideFxMax</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>axisSideFx3</v>
       </c>
       <c r="E22" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.3</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>0.6</v>
       </c>
       <c r="F22" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;axisSideFxMax type="float" value="0.3"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFx3 type="float" value="0.6"/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>maxRotTimeFx0</v>
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>axisSideFxMax</v>
       </c>
       <c r="E23" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>1</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>0.25</v>
       </c>
       <c r="F23" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFx0 type="float" value="1"/&gt;</v>
+        <v xml:space="preserve"> &lt;axisSideFxMax type="float" value="0.25"/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>3</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>maxRotTimeFx1</v>
+      <c r="D24" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>maxRotTimeFx0</v>
       </c>
       <c r="E24" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
         <v>1</v>
       </c>
       <c r="F24" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFx1 type="float" value="1"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxRotTimeFx0 type="float" value="1"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>3</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>maxRotTimeFx2</v>
+      <c r="D25" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>maxRotTimeFx1</v>
       </c>
       <c r="E25" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.96</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>1</v>
       </c>
       <c r="F25" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFx2 type="float" value="0.96"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxRotTimeFx1 type="float" value="1"/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>3</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>maxRotTimeFx3</v>
+      <c r="D26" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>maxRotTimeFx2</v>
       </c>
       <c r="E26" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.82</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>1</v>
       </c>
       <c r="F26" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFx3 type="float" value="0.82"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxRotTimeFx2 type="float" value="1"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <f>MOD(Table1[[#This Row],[line]],5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
         <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
         <v>3</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f>CONCATENATE(INDEX($A$1:$A$4,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
-        <v>maxRotTimeFxMax</v>
+      <c r="D27" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>maxRotTimeFx3</v>
       </c>
       <c r="E27" s="2">
-        <f>INDEX($B$1:$F$4,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
-        <v>0.5</v>
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>1</v>
       </c>
       <c r="F27" s="2" t="str">
         <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
-        <v xml:space="preserve"> &lt;maxRotTimeFxMax type="float" value="0.5"/&gt;</v>
+        <v xml:space="preserve"> &lt;maxRotTimeFx3 type="float" value="1"/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="2">
+        <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <f>MOD(Table1[[#This Row],[line]],5)</f>
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
+        <v>3</v>
+      </c>
+      <c r="D28" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>maxRotTimeFxMax</v>
+      </c>
+      <c r="E28" s="2">
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>0.7</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
+        <v xml:space="preserve"> &lt;maxRotTimeFxMax type="float" value="0.7"/&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
+        <v>20</v>
+      </c>
+      <c r="B29" s="2">
+        <f>MOD(Table1[[#This Row],[line]],5)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
+        <v>4</v>
+      </c>
+      <c r="D29" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>waitTimeFx0</v>
+      </c>
+      <c r="E29" s="2">
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
+        <v xml:space="preserve"> &lt;waitTimeFx0 type="float" value="2"/&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <f>MOD(Table1[[#This Row],[line]],5)</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
+        <v>4</v>
+      </c>
+      <c r="D30" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>waitTimeFx1</v>
+      </c>
+      <c r="E30" s="2">
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
+        <v xml:space="preserve"> &lt;waitTimeFx1 type="float" value="2"/&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
+        <v>22</v>
+      </c>
+      <c r="B31" s="2">
+        <f>MOD(Table1[[#This Row],[line]],5)</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
+        <v>4</v>
+      </c>
+      <c r="D31" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>waitTimeFx2</v>
+      </c>
+      <c r="E31" s="2">
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>1.9</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
+        <v xml:space="preserve"> &lt;waitTimeFx2 type="float" value="1.9"/&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
+        <v>23</v>
+      </c>
+      <c r="B32" s="2">
+        <f>MOD(Table1[[#This Row],[line]],5)</f>
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
+        <v>4</v>
+      </c>
+      <c r="D32" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>waitTimeFx3</v>
+      </c>
+      <c r="E32" s="2">
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>1.6</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
+        <v xml:space="preserve"> &lt;waitTimeFx3 type="float" value="1.6"/&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f>ROW(Table1[[#This Row],[number]])-ROW(Table1[])</f>
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <f>MOD(Table1[[#This Row],[line]],5)</f>
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <f>FLOOR(Table1[[#This Row],[line]],5)/5</f>
+        <v>4</v>
+      </c>
+      <c r="D33" t="str">
+        <f>CONCATENATE(INDEX($A$1:$A$5,Table1[[#This Row],[column]]+1),IF(Table1[[#This Row],[number]]&lt;4,Table1[[#This Row],[number]],"Max"))</f>
+        <v>waitTimeFxMax</v>
+      </c>
+      <c r="E33" s="2">
+        <f>INDEX($B$1:$F$5,Table1[[#This Row],[column]]+1,Table1[[#This Row],[number]]+1)</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f>CONCATENATE(" &lt;",Table1[[#This Row],[tag]]," type=""float"" value=""",Table1[[#This Row],[value]],"""/&gt;")</f>
+        <v xml:space="preserve"> &lt;waitTimeFxMax type="float" value="1"/&gt;</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
